--- a/dist/orario_settimanale.xlsx
+++ b/dist/orario_settimanale.xlsx
@@ -527,7 +527,7 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>ANGELINI</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>CICCIMARRA</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
@@ -557,12 +557,12 @@
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
           <t>PEPE</t>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
@@ -585,22 +585,22 @@
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
+          <t>ANGELINI</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
           <t>DOCENTE1</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>ANGELINI</t>
-        </is>
-      </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>SCHIAVONE</t>
+          <t>SABATELLI</t>
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>SABATELLI</t>
+          <t>CICCIMARRA</t>
         </is>
       </c>
       <c r="F3" s="1" t="inlineStr">
@@ -615,12 +615,12 @@
       </c>
       <c r="H3" s="1" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>PEPE</t>
         </is>
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>SAVINO</t>
         </is>
       </c>
       <c r="J3" s="1" t="inlineStr">
@@ -647,57 +647,57 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
+          <t>ANGELINI</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
           <t>DOCENTE1</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>ANGELINI</t>
-        </is>
-      </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
           <t>SCHIAVONE</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>SAVINO</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
         <is>
           <t>LEO</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
         <is>
           <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>DOCENTE2</t>
-        </is>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="L4" s="1" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
         </is>
       </c>
     </row>
@@ -719,47 +719,47 @@
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>SAVINO</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="L5" s="1" t="inlineStr">
+        <is>
           <t>SABATELLI</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>DOCENTE2</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="L5" s="1" t="inlineStr">
-        <is>
-          <t>CICCIMARRA</t>
         </is>
       </c>
     </row>
@@ -771,57 +771,57 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>DOCENTE1</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>DOCENTE1</t>
+          <t>SAVINO</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>DOCENTE2</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr">
+        <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="L6" s="1" t="inlineStr">
+        <is>
           <t>SABATELLI</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>DOCENTE2</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="L6" s="1" t="inlineStr">
-        <is>
-          <t>CICCIMARRA</t>
         </is>
       </c>
     </row>
@@ -833,7 +833,7 @@
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
@@ -843,22 +843,22 @@
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>CICCIMARRA</t>
+          <t>SCHIAVONE</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>SCHIAVONE</t>
+          <t>SABATELLI</t>
         </is>
       </c>
       <c r="F7" s="1" t="inlineStr">
         <is>
-          <t>DOCENTE4</t>
+          <t>MARANGI</t>
         </is>
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
-          <t>MARANGI</t>
+          <t>SIMEONE</t>
         </is>
       </c>
       <c r="H7" s="1" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr">
+        <is>
           <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
         </is>
       </c>
       <c r="L7" s="1" t="inlineStr"/>
@@ -891,24 +891,24 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>DOCENTE4</t>
+          <t>ANGELINI</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>DOCENTE1</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>SAVINO</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>CICCIMARRA</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>LEO</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
           <t>SIMEONE</t>
@@ -921,22 +921,22 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>MOTORIA</t>
+          <t>PEPE</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>PALMISANO</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr"/>
@@ -949,7 +949,7 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>DOCENTE1</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
@@ -959,14 +959,14 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>CICCIMARRA</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
           <t>MARANGI</t>
@@ -979,22 +979,22 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
+          <t>SAVINO</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
           <t>PEPE</t>
         </is>
       </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>MOTORIA</t>
-        </is>
-      </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>SAVINO</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
@@ -1021,14 +1021,14 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>SABATELLI</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
           <t>MARANGI</t>
@@ -1041,22 +1041,22 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
           <t>PEPE</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>MOTORIA</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1073,42 +1073,42 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>DOCENTE1</t>
+          <t>ANGELINI</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>SAVINO</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
           <t>LEO</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1140,19 +1140,19 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>DOCENTE1</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>SCHIAVONE</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>CICCIMARRA</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
           <t>SIMEONE</t>
@@ -1170,12 +1170,12 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>MOTORIA</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>DOCENTE2</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>LEO</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1197,52 +1197,52 @@
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>DOCENTE1</t>
+          <t>ANGELINI</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>DOCENTE4</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
           <t>SAVINO</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>CICCIMARRA</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
         <is>
           <t>DOCENTE2</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>LEO</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr"/>
@@ -1255,52 +1255,52 @@
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
+          <t>DOCENTE1</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
           <t>ANGELINI</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr">
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>CICCIMARRA</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>SAVINO</t>
+        </is>
+      </c>
+      <c r="H14" s="3" t="inlineStr">
+        <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="I14" s="3" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="J14" s="3" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K14" s="3" t="inlineStr">
         <is>
           <t>LEO</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="E14" s="3" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
-        </is>
-      </c>
-      <c r="F14" s="3" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
-      <c r="G14" s="3" t="inlineStr">
-        <is>
-          <t>DOCENTE4</t>
-        </is>
-      </c>
-      <c r="H14" s="3" t="inlineStr">
-        <is>
-          <t>PEPE</t>
-        </is>
-      </c>
-      <c r="I14" s="3" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="J14" s="3" t="inlineStr">
-        <is>
-          <t>DOCENTE2</t>
-        </is>
-      </c>
-      <c r="K14" s="3" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
         </is>
       </c>
       <c r="L14" s="3" t="inlineStr"/>
@@ -1313,34 +1313,34 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
+          <t>DOCENTE1</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
           <t>ANGELINI</t>
         </is>
       </c>
-      <c r="C15" s="3" t="inlineStr">
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
         <is>
           <t>SAVINO</t>
         </is>
       </c>
-      <c r="D15" s="3" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="E15" s="3" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
-        </is>
-      </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
           <t>MARANGI</t>
         </is>
       </c>
-      <c r="G15" s="3" t="inlineStr">
-        <is>
-          <t>LEO</t>
-        </is>
-      </c>
       <c r="H15" s="3" t="inlineStr">
         <is>
           <t>DOCENTE2</t>
@@ -1353,12 +1353,12 @@
       </c>
       <c r="J15" s="3" t="inlineStr">
         <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="K15" s="3" t="inlineStr">
+        <is>
           <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="K15" s="3" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
         </is>
       </c>
       <c r="L15" s="3" t="inlineStr">
@@ -1375,14 +1375,14 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
+          <t>ANGELINI</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
           <t>DOCENTE1</t>
         </is>
       </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>ANGELINI</t>
-        </is>
-      </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
           <t>SCHIAVONE</t>
@@ -1390,37 +1390,37 @@
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>SABATELLI</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="F16" s="3" t="inlineStr">
         <is>
+          <t>SAVINO</t>
+        </is>
+      </c>
+      <c r="G16" s="3" t="inlineStr">
+        <is>
           <t>MARANGI</t>
         </is>
       </c>
-      <c r="G16" s="3" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
       <c r="H16" s="3" t="inlineStr">
         <is>
+          <t>MOTORIA</t>
+        </is>
+      </c>
+      <c r="I16" s="3" t="inlineStr">
+        <is>
           <t>PALMISANO</t>
         </is>
       </c>
-      <c r="I16" s="3" t="inlineStr">
+      <c r="J16" s="3" t="inlineStr">
+        <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="K16" s="3" t="inlineStr">
         <is>
           <t>DOCENTE2</t>
-        </is>
-      </c>
-      <c r="J16" s="3" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="K16" s="3" t="inlineStr">
-        <is>
-          <t>LEO</t>
         </is>
       </c>
       <c r="L16" s="3" t="inlineStr">
@@ -1437,34 +1437,34 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
           <t>DOCENTE1</t>
         </is>
       </c>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t>ANGELINI</t>
-        </is>
-      </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
           <t>SABATELLI</t>
         </is>
       </c>
-      <c r="E17" s="3" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
           <t>MARANGI</t>
         </is>
       </c>
-      <c r="G17" s="3" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
       <c r="H17" s="3" t="inlineStr">
         <is>
           <t>PALMISANO</t>
@@ -1472,7 +1472,7 @@
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>DOCENTE2</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1482,7 +1482,7 @@
       </c>
       <c r="K17" s="3" t="inlineStr">
         <is>
-          <t>DOCENTE2</t>
+          <t>MOTORIA</t>
         </is>
       </c>
       <c r="L17" s="3" t="inlineStr">
@@ -1499,17 +1499,17 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>DOCENTE4</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>DOCENTE1</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>SABATELLI</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
@@ -1519,14 +1519,14 @@
       </c>
       <c r="F18" s="3" t="inlineStr">
         <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="G18" s="3" t="inlineStr">
+        <is>
           <t>SIMEONE</t>
         </is>
       </c>
-      <c r="G18" s="3" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
       <c r="H18" s="3" t="inlineStr">
         <is>
           <t>PALMISANO</t>
@@ -1534,22 +1534,22 @@
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
+          <t>MOTORIA</t>
+        </is>
+      </c>
+      <c r="J18" s="3" t="inlineStr">
+        <is>
+          <t>DOCENTE2</t>
+        </is>
+      </c>
+      <c r="K18" s="3" t="inlineStr">
+        <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="L18" s="3" t="inlineStr">
+        <is>
           <t>PEPE</t>
-        </is>
-      </c>
-      <c r="J18" s="3" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="K18" s="3" t="inlineStr">
-        <is>
-          <t>DOCENTE2</t>
-        </is>
-      </c>
-      <c r="L18" s="3" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
         </is>
       </c>
     </row>
@@ -1561,12 +1561,12 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>DOCENTE1</t>
+          <t>DOCENTE4</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
@@ -1581,17 +1581,17 @@
       </c>
       <c r="F19" s="3" t="inlineStr">
         <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="G19" s="3" t="inlineStr">
+        <is>
           <t>SIMEONE</t>
         </is>
       </c>
-      <c r="G19" s="3" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
       <c r="H19" s="3" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>PALMISANO</t>
         </is>
       </c>
       <c r="I19" s="3" t="inlineStr">
@@ -1601,12 +1601,12 @@
       </c>
       <c r="J19" s="3" t="inlineStr">
         <is>
+          <t>MOTORIA</t>
+        </is>
+      </c>
+      <c r="K19" s="3" t="inlineStr">
+        <is>
           <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="K19" s="3" t="inlineStr">
-        <is>
-          <t>DOCENTE2</t>
         </is>
       </c>
       <c r="L19" s="3" t="inlineStr"/>
@@ -1629,37 +1629,37 @@
       </c>
       <c r="D20" s="4" t="inlineStr">
         <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="E20" s="4" t="inlineStr">
+        <is>
           <t>SABATELLI</t>
         </is>
       </c>
-      <c r="E20" s="4" t="inlineStr">
-        <is>
-          <t>CICCIMARRA</t>
-        </is>
-      </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>SIMEONE</t>
+          <t>DOCENTE4</t>
         </is>
       </c>
       <c r="G20" s="4" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>SAVINO</t>
         </is>
       </c>
       <c r="H20" s="4" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>PEPE</t>
         </is>
       </c>
       <c r="I20" s="4" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>PALMISANO</t>
         </is>
       </c>
       <c r="J20" s="4" t="inlineStr">
         <is>
-          <t>MOTORIA</t>
+          <t>ZIZZI</t>
         </is>
       </c>
       <c r="K20" s="4" t="inlineStr">
@@ -1687,27 +1687,27 @@
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E21" s="4" t="inlineStr">
+        <is>
           <t>SABATELLI</t>
         </is>
       </c>
-      <c r="E21" s="4" t="inlineStr">
+      <c r="F21" s="4" t="inlineStr">
         <is>
           <t>SAVINO</t>
         </is>
       </c>
-      <c r="F21" s="4" t="inlineStr">
+      <c r="G21" s="4" t="inlineStr">
         <is>
           <t>LEO</t>
         </is>
       </c>
-      <c r="G21" s="4" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
       <c r="H21" s="4" t="inlineStr">
         <is>
-          <t>MOTORIA</t>
+          <t>PALMISANO</t>
         </is>
       </c>
       <c r="I21" s="4" t="inlineStr">
@@ -1739,39 +1739,39 @@
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
+          <t>DOCENTE1</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>ANGELINI</t>
+        </is>
+      </c>
+      <c r="D22" s="4" t="inlineStr">
+        <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="E22" s="4" t="inlineStr">
+        <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="F22" s="4" t="inlineStr">
+        <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="G22" s="4" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="H22" s="4" t="inlineStr">
+        <is>
           <t>SAVINO</t>
         </is>
       </c>
-      <c r="C22" s="4" t="inlineStr">
-        <is>
-          <t>DOCENTE1</t>
-        </is>
-      </c>
-      <c r="D22" s="4" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="E22" s="4" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
-        </is>
-      </c>
-      <c r="F22" s="4" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="G22" s="4" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="H22" s="4" t="inlineStr">
-        <is>
-          <t>LEO</t>
-        </is>
-      </c>
       <c r="I22" s="4" t="inlineStr">
         <is>
           <t>PEPE</t>
@@ -1779,12 +1779,12 @@
       </c>
       <c r="J22" s="4" t="inlineStr">
         <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="K22" s="4" t="inlineStr">
+        <is>
           <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="K22" s="4" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
         </is>
       </c>
       <c r="L22" s="4" t="inlineStr">
@@ -1806,19 +1806,19 @@
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>ANGELINI</t>
         </is>
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="E23" s="4" t="inlineStr">
+        <is>
           <t>SCHIAVONE</t>
         </is>
       </c>
-      <c r="E23" s="4" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
-        </is>
-      </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
           <t>MARANGI</t>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="H23" s="4" t="inlineStr">
         <is>
-          <t>PALMISANO</t>
+          <t>PEPE</t>
         </is>
       </c>
       <c r="I23" s="4" t="inlineStr">
@@ -1851,7 +1851,7 @@
       </c>
       <c r="L23" s="4" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>CICCIMARRA</t>
         </is>
       </c>
     </row>
@@ -1868,22 +1868,22 @@
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>DOCENTE4</t>
+          <t>ANGELINI</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E24" s="4" t="inlineStr">
+        <is>
           <t>SABATELLI</t>
         </is>
       </c>
-      <c r="E24" s="4" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>SIMEONE</t>
         </is>
       </c>
       <c r="G24" s="4" t="inlineStr">
@@ -1893,17 +1893,17 @@
       </c>
       <c r="H24" s="4" t="inlineStr">
         <is>
-          <t>PALMISANO</t>
+          <t>PEPE</t>
         </is>
       </c>
       <c r="I24" s="4" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>DOCENTE2</t>
         </is>
       </c>
       <c r="J24" s="4" t="inlineStr">
         <is>
-          <t>DOCENTE2</t>
+          <t>ZIZZI</t>
         </is>
       </c>
       <c r="K24" s="4" t="inlineStr">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="L24" s="4" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>CICCIMARRA</t>
         </is>
       </c>
     </row>
@@ -1925,27 +1925,27 @@
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
+          <t>ANGELINI</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
           <t>DOCENTE1</t>
         </is>
       </c>
-      <c r="C25" s="4" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E25" s="4" t="inlineStr">
+        <is>
           <t>SABATELLI</t>
         </is>
       </c>
-      <c r="E25" s="4" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>DOCENTE4</t>
+          <t>SIMEONE</t>
         </is>
       </c>
       <c r="G25" s="4" t="inlineStr">
@@ -1960,17 +1960,17 @@
       </c>
       <c r="I25" s="4" t="inlineStr">
         <is>
-          <t>PALMISANO</t>
+          <t>DOCENTE2</t>
         </is>
       </c>
       <c r="J25" s="4" t="inlineStr">
         <is>
-          <t>DOCENTE2</t>
+          <t>ZIZZI</t>
         </is>
       </c>
       <c r="K25" s="4" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>DOCENTE3</t>
         </is>
       </c>
       <c r="L25" s="4" t="inlineStr"/>
@@ -1983,17 +1983,17 @@
       </c>
       <c r="B26" s="5" t="inlineStr">
         <is>
+          <t>DOCENTE1</t>
+        </is>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
           <t>ANGELINI</t>
         </is>
       </c>
-      <c r="C26" s="5" t="inlineStr">
-        <is>
-          <t>DOCENTE1</t>
-        </is>
-      </c>
       <c r="D26" s="5" t="inlineStr">
         <is>
-          <t>SABATELLI</t>
+          <t>CICCIMARRA</t>
         </is>
       </c>
       <c r="E26" s="5" t="inlineStr">
@@ -2003,12 +2003,12 @@
       </c>
       <c r="F26" s="5" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>SIMEONE</t>
         </is>
       </c>
       <c r="G26" s="5" t="inlineStr">
         <is>
-          <t>SIMEONE</t>
+          <t>MARANGI</t>
         </is>
       </c>
       <c r="H26" s="5" t="inlineStr">
@@ -2018,17 +2018,17 @@
       </c>
       <c r="I26" s="5" t="inlineStr">
         <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="J26" s="5" t="inlineStr">
+        <is>
           <t>LEO</t>
         </is>
       </c>
-      <c r="J26" s="5" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
       <c r="K26" s="5" t="inlineStr">
         <is>
-          <t>MOTORIA</t>
+          <t>DOCENTE3</t>
         </is>
       </c>
       <c r="L26" s="5" t="inlineStr"/>
@@ -2041,57 +2041,57 @@
       </c>
       <c r="B27" s="5" t="inlineStr">
         <is>
+          <t>DOCENTE1</t>
+        </is>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
+        <is>
           <t>ANGELINI</t>
         </is>
       </c>
-      <c r="C27" s="5" t="inlineStr">
-        <is>
-          <t>DOCENTE1</t>
-        </is>
-      </c>
       <c r="D27" s="5" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>SCHIAVONE</t>
         </is>
       </c>
       <c r="E27" s="5" t="inlineStr">
         <is>
-          <t>SCHIAVONE</t>
+          <t>SABATELLI</t>
         </is>
       </c>
       <c r="F27" s="5" t="inlineStr">
         <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="G27" s="5" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="H27" s="5" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="I27" s="5" t="inlineStr">
+        <is>
+          <t>DOCENTE2</t>
+        </is>
+      </c>
+      <c r="J27" s="5" t="inlineStr">
+        <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="K27" s="5" t="inlineStr">
+        <is>
           <t>LEO</t>
         </is>
       </c>
-      <c r="G27" s="5" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="H27" s="5" t="inlineStr">
+      <c r="L27" s="5" t="inlineStr">
         <is>
           <t>PEPE</t>
-        </is>
-      </c>
-      <c r="I27" s="5" t="inlineStr">
-        <is>
-          <t>MOTORIA</t>
-        </is>
-      </c>
-      <c r="J27" s="5" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="K27" s="5" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="L27" s="5" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
         </is>
       </c>
     </row>
@@ -2103,57 +2103,57 @@
       </c>
       <c r="B28" s="5" t="inlineStr">
         <is>
+          <t>ANGELINI</t>
+        </is>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
           <t>DOCENTE1</t>
         </is>
       </c>
-      <c r="C28" s="5" t="inlineStr">
-        <is>
-          <t>ANGELINI</t>
-        </is>
-      </c>
       <c r="D28" s="5" t="inlineStr">
         <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="E28" s="5" t="inlineStr">
+        <is>
           <t>SCHIAVONE</t>
         </is>
       </c>
-      <c r="E28" s="5" t="inlineStr">
+      <c r="F28" s="5" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="G28" s="5" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="H28" s="5" t="inlineStr">
         <is>
           <t>SAVINO</t>
         </is>
       </c>
-      <c r="F28" s="5" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="G28" s="5" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="H28" s="5" t="inlineStr">
+      <c r="I28" s="5" t="inlineStr">
+        <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="J28" s="5" t="inlineStr">
+        <is>
+          <t>DOCENTE2</t>
+        </is>
+      </c>
+      <c r="K28" s="5" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="L28" s="5" t="inlineStr">
         <is>
           <t>PEPE</t>
-        </is>
-      </c>
-      <c r="I28" s="5" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="J28" s="5" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="K28" s="5" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="L28" s="5" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
         </is>
       </c>
     </row>
@@ -2175,47 +2175,47 @@
       </c>
       <c r="D29" s="5" t="inlineStr">
         <is>
+          <t>SAVINO</t>
+        </is>
+      </c>
+      <c r="E29" s="5" t="inlineStr">
+        <is>
           <t>SCHIAVONE</t>
         </is>
       </c>
-      <c r="E29" s="5" t="inlineStr">
+      <c r="F29" s="5" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="G29" s="5" t="inlineStr">
+        <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="H29" s="5" t="inlineStr">
+        <is>
+          <t>MOTORIA</t>
+        </is>
+      </c>
+      <c r="I29" s="5" t="inlineStr">
+        <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="J29" s="5" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K29" s="5" t="inlineStr">
+        <is>
+          <t>DOCENTE2</t>
+        </is>
+      </c>
+      <c r="L29" s="5" t="inlineStr">
         <is>
           <t>SABATELLI</t>
-        </is>
-      </c>
-      <c r="F29" s="5" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="G29" s="5" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="H29" s="5" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="I29" s="5" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
-      <c r="J29" s="5" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="K29" s="5" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="L29" s="5" t="inlineStr">
-        <is>
-          <t>PEPE</t>
         </is>
       </c>
     </row>
@@ -2227,7 +2227,7 @@
       </c>
       <c r="B30" s="5" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>SAVINO</t>
         </is>
       </c>
       <c r="C30" s="5" t="inlineStr">
@@ -2237,14 +2237,14 @@
       </c>
       <c r="D30" s="5" t="inlineStr">
         <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="E30" s="5" t="inlineStr">
+        <is>
           <t>SCHIAVONE</t>
         </is>
       </c>
-      <c r="E30" s="5" t="inlineStr">
-        <is>
-          <t>CICCIMARRA</t>
-        </is>
-      </c>
       <c r="F30" s="5" t="inlineStr">
         <is>
           <t>SIMEONE</t>
@@ -2252,12 +2252,12 @@
       </c>
       <c r="G30" s="5" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>DOCENTE4</t>
         </is>
       </c>
       <c r="H30" s="5" t="inlineStr">
         <is>
-          <t>PALMISANO</t>
+          <t>DOCENTE2</t>
         </is>
       </c>
       <c r="I30" s="5" t="inlineStr">
@@ -2272,12 +2272,12 @@
       </c>
       <c r="K30" s="5" t="inlineStr">
         <is>
-          <t>DOCENTE3</t>
+          <t>MOTORIA</t>
         </is>
       </c>
       <c r="L30" s="5" t="inlineStr">
         <is>
-          <t>MARANGI</t>
+          <t>SABATELLI</t>
         </is>
       </c>
     </row>
@@ -2411,7 +2411,11 @@
           <t>LUN1</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr"/>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
           <t>1B</t>
@@ -2440,32 +2444,28 @@
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
           <t>4A</t>
         </is>
       </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
           <t>5B</t>
         </is>
       </c>
-      <c r="L2" s="1" t="inlineStr"/>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
       <c r="M2" s="1" t="inlineStr"/>
       <c r="N2" s="1" t="inlineStr"/>
-      <c r="O2" s="1" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="P2" s="1" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
+      <c r="O2" s="1" t="inlineStr"/>
+      <c r="P2" s="1" t="inlineStr"/>
       <c r="Q2" s="1" t="inlineStr"/>
     </row>
     <row r="3">
@@ -2476,14 +2476,14 @@
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
           <t>5A</t>
@@ -2491,48 +2491,48 @@
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr"/>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="H3" s="1" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="I3" s="1" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="L3" s="1" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="G3" s="1" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="J3" s="1" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="K3" s="1" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="L3" s="1" t="inlineStr"/>
       <c r="M3" s="1" t="inlineStr"/>
       <c r="N3" s="1" t="inlineStr"/>
-      <c r="O3" s="1" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="P3" s="1" t="inlineStr"/>
+      <c r="O3" s="1" t="inlineStr"/>
+      <c r="P3" s="1" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
       <c r="Q3" s="1" t="inlineStr"/>
     </row>
     <row r="4">
@@ -2543,14 +2543,14 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
           <t>5A</t>
@@ -2558,28 +2558,28 @@
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
           <t>COPERTURA</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="H4" s="1" t="inlineStr">
         <is>
           <t>3B</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>3A</t>
         </is>
       </c>
       <c r="I4" s="1" t="inlineStr"/>
       <c r="J4" s="1" t="inlineStr">
         <is>
-          <t>4A</t>
+          <t>4B</t>
         </is>
       </c>
       <c r="K4" s="1" t="inlineStr">
@@ -2589,17 +2589,17 @@
       </c>
       <c r="L4" s="1" t="inlineStr"/>
       <c r="M4" s="1" t="inlineStr"/>
-      <c r="N4" s="1" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
+      <c r="N4" s="1" t="inlineStr"/>
       <c r="O4" s="1" t="inlineStr">
         <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="P4" s="1" t="inlineStr"/>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="P4" s="1" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
       <c r="Q4" s="1" t="inlineStr"/>
     </row>
     <row r="5">
@@ -2625,12 +2625,12 @@
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
           <t>2A</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="inlineStr">
-        <is>
-          <t>2B</t>
         </is>
       </c>
       <c r="G5" s="1" t="inlineStr">
@@ -2654,19 +2654,19 @@
           <t>5A</t>
         </is>
       </c>
-      <c r="L5" s="1" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
+      <c r="L5" s="1" t="inlineStr"/>
       <c r="M5" s="1" t="inlineStr"/>
-      <c r="N5" s="1" t="inlineStr">
+      <c r="N5" s="1" t="inlineStr"/>
+      <c r="O5" s="1" t="inlineStr">
         <is>
           <t>4A</t>
         </is>
       </c>
-      <c r="O5" s="1" t="inlineStr"/>
-      <c r="P5" s="1" t="inlineStr"/>
+      <c r="P5" s="1" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
       <c r="Q5" s="1" t="inlineStr"/>
     </row>
     <row r="6">
@@ -2675,16 +2675,12 @@
           <t>LUN5</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr"/>
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
           <t>5B</t>
@@ -2692,12 +2688,12 @@
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="inlineStr">
+        <is>
           <t>2A</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="inlineStr">
-        <is>
-          <t>2B</t>
         </is>
       </c>
       <c r="G6" s="1" t="inlineStr">
@@ -2721,19 +2717,23 @@
           <t>5A</t>
         </is>
       </c>
-      <c r="L6" s="1" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
+      <c r="L6" s="1" t="inlineStr"/>
       <c r="M6" s="1" t="inlineStr"/>
       <c r="N6" s="1" t="inlineStr">
         <is>
           <t>4A</t>
         </is>
       </c>
-      <c r="O6" s="1" t="inlineStr"/>
-      <c r="P6" s="1" t="inlineStr"/>
+      <c r="O6" s="1" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="P6" s="1" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
       <c r="Q6" s="1" t="inlineStr"/>
     </row>
     <row r="7">
@@ -2742,11 +2742,7 @@
           <t>LUN6</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
+      <c r="B7" s="1" t="inlineStr"/>
       <c r="C7" s="1" t="inlineStr">
         <is>
           <t>1B</t>
@@ -2754,21 +2750,29 @@
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr"/>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
       <c r="F7" s="1" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
           <t>3B</t>
         </is>
       </c>
-      <c r="H7" s="1" t="inlineStr"/>
       <c r="I7" s="1" t="inlineStr"/>
       <c r="J7" s="1" t="inlineStr">
         <is>
@@ -2777,27 +2781,23 @@
       </c>
       <c r="K7" s="1" t="inlineStr">
         <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="L7" s="1" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="L7" s="1" t="inlineStr"/>
       <c r="M7" s="1" t="inlineStr"/>
       <c r="N7" s="1" t="inlineStr">
         <is>
           <t>4A</t>
         </is>
       </c>
-      <c r="O7" s="1" t="inlineStr"/>
+      <c r="O7" s="1" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
       <c r="P7" s="1" t="inlineStr"/>
-      <c r="Q7" s="1" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
+      <c r="Q7" s="1" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -2807,13 +2807,17 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr"/>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5A</t>
+          <t>5B</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr"/>
@@ -2830,37 +2834,33 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>4B</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr"/>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5B</t>
+          <t>5A</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr"/>
+      <c r="N8" s="2" t="inlineStr"/>
+      <c r="O8" s="2" t="inlineStr"/>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
           <t>2A</t>
         </is>
       </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr"/>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr"/>
-      <c r="Q8" s="2" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
+      <c r="Q8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -2873,15 +2873,19 @@
           <t>1B</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr"/>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5B</t>
+          <t>5A</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr"/>
@@ -2897,36 +2901,32 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr"/>
+      <c r="N9" s="2" t="inlineStr"/>
+      <c r="O9" s="2" t="inlineStr"/>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
           <t>4A</t>
         </is>
       </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr"/>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="P9" s="2" t="inlineStr"/>
       <c r="Q9" s="2" t="inlineStr"/>
     </row>
     <row r="10">
@@ -2941,17 +2941,21 @@
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr"/>
-      <c r="D10" s="2" t="inlineStr"/>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>2A</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
           <t>3A</t>
@@ -2964,17 +2968,17 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>4A</t>
         </is>
       </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5A</t>
+          <t>5B</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -2982,18 +2986,14 @@
           <t>COPERTURA</t>
         </is>
       </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
+      <c r="M10" s="2" t="inlineStr"/>
       <c r="N10" s="2" t="inlineStr"/>
-      <c r="O10" s="2" t="inlineStr">
+      <c r="O10" s="2" t="inlineStr"/>
+      <c r="P10" s="2" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="P10" s="2" t="inlineStr"/>
       <c r="Q10" s="2" t="inlineStr"/>
     </row>
     <row r="11">
@@ -3004,35 +3004,35 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
           <t>1A</t>
         </is>
       </c>
+      <c r="C11" s="2" t="inlineStr"/>
       <c r="D11" s="2" t="inlineStr"/>
-      <c r="E11" s="2" t="inlineStr"/>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>3B</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>3A</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr"/>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4B</t>
+          <t>4A</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -3053,12 +3053,12 @@
       <c r="N11" s="2" t="inlineStr"/>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4B</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>4A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr"/>
@@ -3074,16 +3074,16 @@
           <t>1A</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
+      <c r="C12" s="2" t="inlineStr"/>
       <c r="D12" s="2" t="inlineStr"/>
-      <c r="E12" s="2" t="inlineStr"/>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -3107,20 +3107,20 @@
           <t>5B</t>
         </is>
       </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr"/>
+      <c r="L12" s="2" t="inlineStr"/>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>4B</t>
+          <t>5A</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>5A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
@@ -3136,14 +3136,18 @@
           <t>MAR6</t>
         </is>
       </c>
-      <c r="B13" s="2" t="inlineStr"/>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
       </c>
+      <c r="C13" s="2" t="inlineStr"/>
       <c r="D13" s="2" t="inlineStr"/>
-      <c r="E13" s="2" t="inlineStr"/>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
           <t>2B</t>
@@ -3165,33 +3169,29 @@
           <t>4A</t>
         </is>
       </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
+      <c r="K13" s="2" t="inlineStr"/>
+      <c r="L13" s="2" t="inlineStr"/>
       <c r="M13" s="2" t="inlineStr"/>
       <c r="N13" s="2" t="inlineStr">
         <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
           <t>4B</t>
         </is>
       </c>
-      <c r="O13" s="2" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="P13" s="2" t="inlineStr">
+      <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="Q13" s="2" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
@@ -3201,22 +3201,26 @@
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr"/>
       <c r="D14" s="3" t="inlineStr"/>
-      <c r="E14" s="3" t="inlineStr">
+      <c r="E14" s="3" t="inlineStr"/>
+      <c r="F14" s="3" t="inlineStr">
         <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="F14" s="3" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="G14" s="3" t="inlineStr"/>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
       <c r="H14" s="3" t="inlineStr"/>
       <c r="I14" s="3" t="inlineStr">
         <is>
@@ -3230,31 +3234,27 @@
       </c>
       <c r="K14" s="3" t="inlineStr">
         <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="L14" s="3" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="M14" s="3" t="inlineStr"/>
+      <c r="N14" s="3" t="inlineStr"/>
+      <c r="O14" s="3" t="inlineStr">
+        <is>
           <t>5B</t>
         </is>
       </c>
-      <c r="L14" s="3" t="inlineStr"/>
-      <c r="M14" s="3" t="inlineStr"/>
-      <c r="N14" s="3" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="O14" s="3" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
       <c r="P14" s="3" t="inlineStr">
         <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="Q14" s="3" t="inlineStr">
-        <is>
           <t>3B</t>
         </is>
       </c>
+      <c r="Q14" s="3" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
@@ -3264,20 +3264,20 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="C15" s="3" t="inlineStr"/>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="E15" s="3" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr"/>
       <c r="F15" s="3" t="inlineStr">
         <is>
           <t>2A</t>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>3A</t>
+          <t>3B</t>
         </is>
       </c>
       <c r="H15" s="3" t="inlineStr"/>
@@ -3301,7 +3301,7 @@
       </c>
       <c r="K15" s="3" t="inlineStr">
         <is>
-          <t>5A</t>
+          <t>5B</t>
         </is>
       </c>
       <c r="L15" s="3" t="inlineStr"/>
@@ -3313,12 +3313,12 @@
       </c>
       <c r="O15" s="3" t="inlineStr">
         <is>
-          <t>3B</t>
+          <t>3A</t>
         </is>
       </c>
       <c r="P15" s="3" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="Q15" s="3" t="inlineStr"/>
@@ -3331,24 +3331,20 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
           <t>5A</t>
         </is>
       </c>
-      <c r="E16" s="3" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
+      <c r="E16" s="3" t="inlineStr"/>
       <c r="F16" s="3" t="inlineStr">
         <is>
           <t>2A</t>
@@ -3356,7 +3352,7 @@
       </c>
       <c r="G16" s="3" t="inlineStr">
         <is>
-          <t>3A</t>
+          <t>3B</t>
         </is>
       </c>
       <c r="H16" s="3" t="inlineStr"/>
@@ -3367,25 +3363,29 @@
       </c>
       <c r="J16" s="3" t="inlineStr">
         <is>
-          <t>4A</t>
+          <t>4B</t>
         </is>
       </c>
       <c r="K16" s="3" t="inlineStr"/>
       <c r="L16" s="3" t="inlineStr"/>
-      <c r="M16" s="3" t="inlineStr"/>
+      <c r="M16" s="3" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
       <c r="N16" s="3" t="inlineStr">
         <is>
-          <t>4B</t>
+          <t>5B</t>
         </is>
       </c>
       <c r="O16" s="3" t="inlineStr">
         <is>
-          <t>5B</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="P16" s="3" t="inlineStr">
         <is>
-          <t>3B</t>
+          <t>3A</t>
         </is>
       </c>
       <c r="Q16" s="3" t="inlineStr"/>
@@ -3396,16 +3396,12 @@
           <t>MER4</t>
         </is>
       </c>
-      <c r="B17" s="3" t="inlineStr">
+      <c r="B17" s="3" t="inlineStr"/>
+      <c r="C17" s="3" t="inlineStr">
         <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
           <t>5A</t>
@@ -3413,22 +3409,22 @@
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
           <t>2A</t>
         </is>
       </c>
-      <c r="F17" s="3" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
       <c r="G17" s="3" t="inlineStr">
         <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="H17" s="3" t="inlineStr">
+        <is>
           <t>3A</t>
-        </is>
-      </c>
-      <c r="H17" s="3" t="inlineStr">
-        <is>
-          <t>3B</t>
         </is>
       </c>
       <c r="I17" s="3" t="inlineStr">
@@ -3443,18 +3439,22 @@
       </c>
       <c r="K17" s="3" t="inlineStr"/>
       <c r="L17" s="3" t="inlineStr"/>
-      <c r="M17" s="3" t="inlineStr"/>
+      <c r="M17" s="3" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
       <c r="N17" s="3" t="inlineStr">
         <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="O17" s="3" t="inlineStr"/>
-      <c r="P17" s="3" t="inlineStr">
-        <is>
           <t>4B</t>
         </is>
       </c>
+      <c r="O17" s="3" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="P17" s="3" t="inlineStr"/>
       <c r="Q17" s="3" t="inlineStr"/>
     </row>
     <row r="18">
@@ -3463,44 +3463,36 @@
           <t>MER5</t>
         </is>
       </c>
-      <c r="B18" s="3" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="C18" s="3" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
+      <c r="B18" s="3" t="inlineStr"/>
+      <c r="C18" s="3" t="inlineStr"/>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>5A</t>
+          <t>5B</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F18" s="3" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="G18" s="3" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="H18" s="3" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="I18" s="3" t="inlineStr">
+        <is>
           <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="F18" s="3" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="G18" s="3" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="H18" s="3" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="I18" s="3" t="inlineStr">
-        <is>
-          <t>4B</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -3510,19 +3502,27 @@
       </c>
       <c r="K18" s="3" t="inlineStr"/>
       <c r="L18" s="3" t="inlineStr"/>
-      <c r="M18" s="3" t="inlineStr"/>
+      <c r="M18" s="3" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
       <c r="N18" s="3" t="inlineStr">
         <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="O18" s="3" t="inlineStr"/>
-      <c r="P18" s="3" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="Q18" s="3" t="inlineStr"/>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="O18" s="3" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="P18" s="3" t="inlineStr"/>
+      <c r="Q18" s="3" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
@@ -3530,19 +3530,11 @@
           <t>MER6</t>
         </is>
       </c>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
+      <c r="B19" s="3" t="inlineStr"/>
+      <c r="C19" s="3" t="inlineStr"/>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>5A</t>
+          <t>5B</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
@@ -3557,35 +3549,43 @@
       </c>
       <c r="G19" s="3" t="inlineStr">
         <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="H19" s="3" t="inlineStr">
+        <is>
           <t>3B</t>
         </is>
       </c>
-      <c r="H19" s="3" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
           <t>4B</t>
         </is>
       </c>
-      <c r="J19" s="3" t="inlineStr"/>
+      <c r="J19" s="3" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
       <c r="K19" s="3" t="inlineStr"/>
       <c r="L19" s="3" t="inlineStr"/>
-      <c r="M19" s="3" t="inlineStr"/>
-      <c r="N19" s="3" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="O19" s="3" t="inlineStr"/>
-      <c r="P19" s="3" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="Q19" s="3" t="inlineStr"/>
+      <c r="M19" s="3" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="N19" s="3" t="inlineStr"/>
+      <c r="O19" s="3" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="P19" s="3" t="inlineStr"/>
+      <c r="Q19" s="3" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
@@ -3610,45 +3610,45 @@
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr"/>
       <c r="G20" s="4" t="inlineStr"/>
-      <c r="H20" s="4" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
+      <c r="H20" s="4" t="inlineStr"/>
       <c r="I20" s="4" t="inlineStr">
         <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="J20" s="4" t="inlineStr">
+        <is>
           <t>4B</t>
         </is>
       </c>
-      <c r="J20" s="4" t="inlineStr"/>
-      <c r="K20" s="4" t="inlineStr"/>
-      <c r="L20" s="4" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="M20" s="4" t="inlineStr">
+      <c r="K20" s="4" t="inlineStr">
         <is>
           <t>5A</t>
         </is>
       </c>
+      <c r="L20" s="4" t="inlineStr"/>
+      <c r="M20" s="4" t="inlineStr"/>
       <c r="N20" s="4" t="inlineStr"/>
       <c r="O20" s="4" t="inlineStr">
         <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="P20" s="4" t="inlineStr">
+        <is>
           <t>3B</t>
         </is>
       </c>
-      <c r="P20" s="4" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="Q20" s="4" t="inlineStr"/>
+      <c r="Q20" s="4" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
@@ -3673,22 +3673,26 @@
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F21" s="4" t="inlineStr">
+        <is>
           <t>2A</t>
         </is>
       </c>
-      <c r="F21" s="4" t="inlineStr"/>
       <c r="G21" s="4" t="inlineStr"/>
-      <c r="H21" s="4" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
+      <c r="H21" s="4" t="inlineStr"/>
       <c r="I21" s="4" t="inlineStr">
         <is>
           <t>4B</t>
         </is>
       </c>
-      <c r="J21" s="4" t="inlineStr"/>
+      <c r="J21" s="4" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
       <c r="K21" s="4" t="inlineStr">
         <is>
           <t>5B</t>
@@ -3699,20 +3703,16 @@
           <t>COPERTURA</t>
         </is>
       </c>
-      <c r="M21" s="4" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
+      <c r="M21" s="4" t="inlineStr"/>
       <c r="N21" s="4" t="inlineStr"/>
       <c r="O21" s="4" t="inlineStr">
         <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="P21" s="4" t="inlineStr">
+        <is>
           <t>3A</t>
-        </is>
-      </c>
-      <c r="P21" s="4" t="inlineStr">
-        <is>
-          <t>2B</t>
         </is>
       </c>
       <c r="Q21" s="4" t="inlineStr"/>
@@ -3723,32 +3723,32 @@
           <t>GIO3</t>
         </is>
       </c>
-      <c r="B22" s="4" t="inlineStr"/>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D22" s="4" t="inlineStr">
         <is>
-          <t>5B</t>
+          <t>5A</t>
         </is>
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F22" s="4" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="F22" s="4" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="G22" s="4" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
+      <c r="G22" s="4" t="inlineStr"/>
       <c r="H22" s="4" t="inlineStr">
         <is>
           <t>3B</t>
@@ -3762,7 +3762,7 @@
       <c r="J22" s="4" t="inlineStr"/>
       <c r="K22" s="4" t="inlineStr">
         <is>
-          <t>5A</t>
+          <t>5B</t>
         </is>
       </c>
       <c r="L22" s="4" t="inlineStr">
@@ -3774,12 +3774,12 @@
       <c r="N22" s="4" t="inlineStr"/>
       <c r="O22" s="4" t="inlineStr">
         <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="P22" s="4" t="inlineStr">
+        <is>
           <t>4A</t>
-        </is>
-      </c>
-      <c r="P22" s="4" t="inlineStr">
-        <is>
-          <t>1A</t>
         </is>
       </c>
       <c r="Q22" s="4" t="inlineStr"/>
@@ -3790,7 +3790,11 @@
           <t>GIO4</t>
         </is>
       </c>
-      <c r="B23" s="4" t="inlineStr"/>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
           <t>1A</t>
@@ -3803,14 +3807,14 @@
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F23" s="4" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="F23" s="4" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
       <c r="G23" s="4" t="inlineStr">
         <is>
           <t>3A</t>
@@ -3823,27 +3827,23 @@
       </c>
       <c r="I23" s="4" t="inlineStr">
         <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="J23" s="4" t="inlineStr"/>
+      <c r="K23" s="4" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="L23" s="4" t="inlineStr">
+        <is>
           <t>COPERTURA</t>
         </is>
       </c>
-      <c r="J23" s="4" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="K23" s="4" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="L23" s="4" t="inlineStr"/>
       <c r="M23" s="4" t="inlineStr"/>
       <c r="N23" s="4" t="inlineStr"/>
-      <c r="O23" s="4" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
+      <c r="O23" s="4" t="inlineStr"/>
       <c r="P23" s="4" t="inlineStr">
         <is>
           <t>4B</t>
@@ -3857,7 +3857,11 @@
           <t>GIO5</t>
         </is>
       </c>
-      <c r="B24" s="4" t="inlineStr"/>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
           <t>1A</t>
@@ -3870,53 +3874,49 @@
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F24" s="4" t="inlineStr">
+        <is>
           <t>2A</t>
         </is>
       </c>
-      <c r="F24" s="4" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
       <c r="G24" s="4" t="inlineStr">
         <is>
           <t>3B</t>
         </is>
       </c>
-      <c r="H24" s="4" t="inlineStr"/>
+      <c r="H24" s="4" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
       <c r="I24" s="4" t="inlineStr">
         <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="J24" s="4" t="inlineStr"/>
+      <c r="K24" s="4" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="L24" s="4" t="inlineStr">
+        <is>
           <t>COPERTURA</t>
         </is>
       </c>
-      <c r="J24" s="4" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="K24" s="4" t="inlineStr"/>
-      <c r="L24" s="4" t="inlineStr"/>
       <c r="M24" s="4" t="inlineStr"/>
       <c r="N24" s="4" t="inlineStr">
         <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="O24" s="4" t="inlineStr">
-        <is>
           <t>4B</t>
         </is>
       </c>
-      <c r="P24" s="4" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="Q24" s="4" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
+      <c r="O24" s="4" t="inlineStr"/>
+      <c r="P24" s="4" t="inlineStr"/>
+      <c r="Q24" s="4" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
@@ -3924,62 +3924,62 @@
           <t>GIO6</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr"/>
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="D25" s="4" t="inlineStr"/>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D25" s="4" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F25" s="4" t="inlineStr">
+        <is>
           <t>2A</t>
         </is>
       </c>
-      <c r="F25" s="4" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
       <c r="G25" s="4" t="inlineStr">
         <is>
           <t>3B</t>
         </is>
       </c>
-      <c r="H25" s="4" t="inlineStr"/>
+      <c r="H25" s="4" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
       <c r="I25" s="4" t="inlineStr">
         <is>
           <t>4A</t>
         </is>
       </c>
-      <c r="J25" s="4" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="K25" s="4" t="inlineStr"/>
+      <c r="J25" s="4" t="inlineStr"/>
+      <c r="K25" s="4" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
       <c r="L25" s="4" t="inlineStr"/>
       <c r="M25" s="4" t="inlineStr"/>
       <c r="N25" s="4" t="inlineStr">
         <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="O25" s="4" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="P25" s="4" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="Q25" s="4" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="O25" s="4" t="inlineStr"/>
+      <c r="P25" s="4" t="inlineStr"/>
+      <c r="Q25" s="4" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="5" t="inlineStr">
@@ -3989,59 +3989,59 @@
       </c>
       <c r="B26" s="5" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="C26" s="5" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="D26" s="5" t="inlineStr"/>
-      <c r="E26" s="5" t="inlineStr">
+      <c r="D26" s="5" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="E26" s="5" t="inlineStr"/>
+      <c r="F26" s="5" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="G26" s="5" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="H26" s="5" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="I26" s="5" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="J26" s="5" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="K26" s="5" t="inlineStr"/>
+      <c r="L26" s="5" t="inlineStr">
         <is>
           <t>2A</t>
         </is>
       </c>
-      <c r="F26" s="5" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="G26" s="5" t="inlineStr"/>
-      <c r="H26" s="5" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="I26" s="5" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="J26" s="5" t="inlineStr"/>
-      <c r="K26" s="5" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="L26" s="5" t="inlineStr"/>
-      <c r="M26" s="5" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
+      <c r="M26" s="5" t="inlineStr"/>
       <c r="N26" s="5" t="inlineStr"/>
       <c r="O26" s="5" t="inlineStr">
         <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="P26" s="5" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="P26" s="5" t="inlineStr"/>
       <c r="Q26" s="5" t="inlineStr"/>
     </row>
     <row r="27">
@@ -4052,14 +4052,14 @@
       </c>
       <c r="B27" s="5" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="C27" s="5" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
       <c r="D27" s="5" t="inlineStr">
         <is>
           <t>5A</t>
@@ -4067,48 +4067,48 @@
       </c>
       <c r="E27" s="5" t="inlineStr">
         <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F27" s="5" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G27" s="5" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="H27" s="5" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="I27" s="5" t="inlineStr">
+        <is>
           <t>COPERTURA</t>
         </is>
       </c>
-      <c r="F27" s="5" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="G27" s="5" t="inlineStr"/>
-      <c r="H27" s="5" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="I27" s="5" t="inlineStr">
+      <c r="J27" s="5" t="inlineStr">
         <is>
           <t>4A</t>
         </is>
       </c>
-      <c r="J27" s="5" t="inlineStr"/>
-      <c r="K27" s="5" t="inlineStr">
+      <c r="K27" s="5" t="inlineStr"/>
+      <c r="L27" s="5" t="inlineStr"/>
+      <c r="M27" s="5" t="inlineStr"/>
+      <c r="N27" s="5" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="O27" s="5" t="inlineStr">
         <is>
           <t>5B</t>
         </is>
       </c>
-      <c r="L27" s="5" t="inlineStr"/>
-      <c r="M27" s="5" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="N27" s="5" t="inlineStr"/>
-      <c r="O27" s="5" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="P27" s="5" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
+      <c r="P27" s="5" t="inlineStr"/>
       <c r="Q27" s="5" t="inlineStr"/>
     </row>
     <row r="28">
@@ -4119,61 +4119,61 @@
       </c>
       <c r="B28" s="5" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="C28" s="5" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="D28" s="5" t="inlineStr">
+      <c r="D28" s="5" t="inlineStr"/>
+      <c r="E28" s="5" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F28" s="5" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="G28" s="5" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="H28" s="5" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="I28" s="5" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="J28" s="5" t="inlineStr"/>
+      <c r="K28" s="5" t="inlineStr">
         <is>
           <t>5B</t>
-        </is>
-      </c>
-      <c r="E28" s="5" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="F28" s="5" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="G28" s="5" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="H28" s="5" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="I28" s="5" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="J28" s="5" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="K28" s="5" t="inlineStr">
-        <is>
-          <t>5A</t>
         </is>
       </c>
       <c r="L28" s="5" t="inlineStr"/>
       <c r="M28" s="5" t="inlineStr"/>
-      <c r="N28" s="5" t="inlineStr"/>
-      <c r="O28" s="5" t="inlineStr"/>
+      <c r="N28" s="5" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="O28" s="5" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
       <c r="P28" s="5" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4A</t>
         </is>
       </c>
       <c r="Q28" s="5" t="inlineStr"/>
@@ -4194,53 +4194,53 @@
           <t>1B</t>
         </is>
       </c>
-      <c r="D29" s="5" t="inlineStr">
+      <c r="D29" s="5" t="inlineStr"/>
+      <c r="E29" s="5" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="F29" s="5" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="G29" s="5" t="inlineStr"/>
+      <c r="H29" s="5" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="I29" s="5" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="J29" s="5" t="inlineStr"/>
+      <c r="K29" s="5" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="L29" s="5" t="inlineStr"/>
+      <c r="M29" s="5" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="N29" s="5" t="inlineStr">
         <is>
           <t>5B</t>
         </is>
       </c>
-      <c r="E29" s="5" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="F29" s="5" t="inlineStr">
+      <c r="O29" s="5" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="P29" s="5" t="inlineStr">
         <is>
           <t>2A</t>
-        </is>
-      </c>
-      <c r="G29" s="5" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="H29" s="5" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="I29" s="5" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="J29" s="5" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="K29" s="5" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="L29" s="5" t="inlineStr"/>
-      <c r="M29" s="5" t="inlineStr"/>
-      <c r="N29" s="5" t="inlineStr"/>
-      <c r="O29" s="5" t="inlineStr"/>
-      <c r="P29" s="5" t="inlineStr">
-        <is>
-          <t>4B</t>
         </is>
       </c>
       <c r="Q29" s="5" t="inlineStr"/>
@@ -4251,66 +4251,66 @@
           <t>VEN5</t>
         </is>
       </c>
-      <c r="B30" s="5" t="inlineStr">
+      <c r="B30" s="5" t="inlineStr"/>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D30" s="5" t="inlineStr"/>
+      <c r="E30" s="5" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="F30" s="5" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="G30" s="5" t="inlineStr"/>
+      <c r="H30" s="5" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="I30" s="5" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="J30" s="5" t="inlineStr"/>
+      <c r="K30" s="5" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="L30" s="5" t="inlineStr"/>
+      <c r="M30" s="5" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="N30" s="5" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="O30" s="5" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="P30" s="5" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="C30" s="5" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="D30" s="5" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="E30" s="5" t="inlineStr"/>
-      <c r="F30" s="5" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="G30" s="5" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="H30" s="5" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="I30" s="5" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="J30" s="5" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="K30" s="5" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="L30" s="5" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="M30" s="5" t="inlineStr"/>
-      <c r="N30" s="5" t="inlineStr"/>
-      <c r="O30" s="5" t="inlineStr"/>
-      <c r="P30" s="5" t="inlineStr">
+      <c r="Q30" s="5" t="inlineStr">
         <is>
           <t>3B</t>
         </is>
       </c>
-      <c r="Q30" s="5" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="5" t="inlineStr">
